--- a/PerceptronFirstTry/data.xlsx
+++ b/PerceptronFirstTry/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirill\Documents\_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirill\source\repos\PerceptronFirstTry\PerceptronFirstTry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5668,11 +5668,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="555962624"/>
-        <c:axId val="555964256"/>
+        <c:axId val="1327679792"/>
+        <c:axId val="1327683056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="555962624"/>
+        <c:axId val="1327679792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5714,7 +5714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555964256"/>
+        <c:crossAx val="1327683056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5722,7 +5722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555964256"/>
+        <c:axId val="1327683056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,7 +5773,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555962624"/>
+        <c:crossAx val="1327679792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13150,11 +13150,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555963168"/>
-        <c:axId val="555969152"/>
+        <c:axId val="1327680336"/>
+        <c:axId val="1327683600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="555963168"/>
+        <c:axId val="1327680336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13196,7 +13196,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555969152"/>
+        <c:crossAx val="1327683600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13204,7 +13204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555969152"/>
+        <c:axId val="1327683600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13255,7 +13255,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555963168"/>
+        <c:crossAx val="1327680336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31362,11 +31362,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="555966976"/>
-        <c:axId val="555970240"/>
+        <c:axId val="1327680880"/>
+        <c:axId val="1327670544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="555966976"/>
+        <c:axId val="1327680880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31408,7 +31408,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555970240"/>
+        <c:crossAx val="1327670544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -31416,7 +31416,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="555970240"/>
+        <c:axId val="1327670544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31467,7 +31467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="555966976"/>
+        <c:crossAx val="1327680880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31749,11 +31749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="559633056"/>
-        <c:axId val="559633600"/>
+        <c:axId val="1327674352"/>
+        <c:axId val="1327671632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="559633056"/>
+        <c:axId val="1327674352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31795,7 +31795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559633600"/>
+        <c:crossAx val="1327671632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -31803,7 +31803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="559633600"/>
+        <c:axId val="1327671632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31854,7 +31854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="559633056"/>
+        <c:crossAx val="1327674352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -34124,16 +34124,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>348727</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>158675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>394447</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -34510,8 +34510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A205" sqref="A205:I206"/>
+    <sheetView tabSelected="1" topLeftCell="A441" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q446" sqref="Q446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PerceptronFirstTry/data.xlsx
+++ b/PerceptronFirstTry/data.xlsx
@@ -71,8 +71,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5668,11 +5669,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1327679792"/>
-        <c:axId val="1327683056"/>
+        <c:axId val="1312470416"/>
+        <c:axId val="1312471504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1327679792"/>
+        <c:axId val="1312470416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5714,7 +5715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327683056"/>
+        <c:crossAx val="1312471504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5722,7 +5723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1327683056"/>
+        <c:axId val="1312471504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,7 +5774,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327679792"/>
+        <c:crossAx val="1312470416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13150,11 +13151,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1327680336"/>
-        <c:axId val="1327683600"/>
+        <c:axId val="1312460080"/>
+        <c:axId val="1312472048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1327680336"/>
+        <c:axId val="1312460080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13196,7 +13197,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327683600"/>
+        <c:crossAx val="1312472048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13204,7 +13205,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1327683600"/>
+        <c:axId val="1312472048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13255,7 +13256,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327680336"/>
+        <c:crossAx val="1312460080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31362,11 +31363,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1327680880"/>
-        <c:axId val="1327670544"/>
+        <c:axId val="1312467696"/>
+        <c:axId val="1312458448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1327680880"/>
+        <c:axId val="1312467696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31408,7 +31409,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327670544"/>
+        <c:crossAx val="1312458448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -31416,7 +31417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1327670544"/>
+        <c:axId val="1312458448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31467,7 +31468,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327680880"/>
+        <c:crossAx val="1312467696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31563,7 +31564,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -31749,11 +31749,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1327674352"/>
-        <c:axId val="1327671632"/>
+        <c:axId val="1312468784"/>
+        <c:axId val="1312465520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1327674352"/>
+        <c:axId val="1312468784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31795,7 +31795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327671632"/>
+        <c:crossAx val="1312465520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -31803,7 +31803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1327671632"/>
+        <c:axId val="1312465520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31854,7 +31854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1327674352"/>
+        <c:crossAx val="1312468784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31868,6 +31868,87 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -31882,7 +31963,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -31897,7 +31978,739 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:legend>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$472:$I$472</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>95.132400000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.197800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12881000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3731800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.46371E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.56019E-4</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>1.6630299999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>1.77264E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1456207840"/>
+        <c:axId val="1456202400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1456207840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456202400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1456202400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456207840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$473:$I$473</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.849999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1456208384"/>
+        <c:axId val="1456209472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1456208384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456209472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1456209472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456208384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$474:$I$474</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>60.752099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3860200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29807600000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0171600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3646699999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00E+00">
+                  <c:v>9.2322299999999995E-5</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00E+00">
+                  <c:v>6.2457600000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00E+00">
+                  <c:v>4.2253600000000002E-7</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0.00E+00">
+                  <c:v>2.8585300000000001E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1456211648"/>
+        <c:axId val="1456202944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1456211648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456202944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1456202944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1456211648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -32056,6 +32869,126 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -34120,6 +35053,1541 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -34237,6 +36705,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>412376</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466164</xdr:colOff>
+      <xdr:row>456</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>161364</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>107576</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>412376</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>62754</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34508,10 +37066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I456"/>
+  <dimension ref="A1:I474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A441" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q446" sqref="Q446"/>
+    <sheetView tabSelected="1" topLeftCell="A456" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A474" sqref="A474:I474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47677,6 +50235,93 @@
         <v>6.37331</v>
       </c>
     </row>
+    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>95.132400000000004</v>
+      </c>
+      <c r="B472">
+        <v>11.197800000000001</v>
+      </c>
+      <c r="C472">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="D472">
+        <v>0.12881000000000001</v>
+      </c>
+      <c r="E472">
+        <v>1.3731800000000001E-2</v>
+      </c>
+      <c r="F472">
+        <v>1.46371E-3</v>
+      </c>
+      <c r="G472">
+        <v>1.56019E-4</v>
+      </c>
+      <c r="H472" s="1">
+        <v>1.6630299999999999E-5</v>
+      </c>
+      <c r="I472" s="1">
+        <v>1.77264E-6</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>450</v>
+      </c>
+      <c r="B473">
+        <v>93.6</v>
+      </c>
+      <c r="C473">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="D473">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="E473">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F473">
+        <v>73.8</v>
+      </c>
+      <c r="G473">
+        <v>72</v>
+      </c>
+      <c r="H473">
+        <v>69.75</v>
+      </c>
+      <c r="I473">
+        <v>67.95</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>60.752099999999999</v>
+      </c>
+      <c r="B474">
+        <v>4.3860200000000003</v>
+      </c>
+      <c r="C474">
+        <v>0.29807600000000001</v>
+      </c>
+      <c r="D474">
+        <v>2.0171600000000001E-2</v>
+      </c>
+      <c r="E474">
+        <v>1.3646699999999999E-3</v>
+      </c>
+      <c r="F474" s="1">
+        <v>9.2322299999999995E-5</v>
+      </c>
+      <c r="G474" s="1">
+        <v>6.2457600000000002E-6</v>
+      </c>
+      <c r="H474" s="1">
+        <v>4.2253600000000002E-7</v>
+      </c>
+      <c r="I474" s="1">
+        <v>2.8585300000000001E-8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
